--- a/CAN Financial Statements/COA Mapping - Canada Updated.xlsx
+++ b/CAN Financial Statements/COA Mapping - Canada Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/athena_baena_springfertility_com/Documents/Desktop/My Files/Month End/References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Programs/Python/CAN Financial Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915F2F1E-6CA9-4D2F-9629-FD23BA70EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{915F2F1E-6CA9-4D2F-9629-FD23BA70EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F1F1B7-410F-4807-9E7E-32D150B5C63A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52639044-B309-4334-ABC9-3CF03D31416C}"/>
+    <workbookView xWindow="4155" yWindow="4230" windowWidth="38700" windowHeight="15435" activeTab="2" xr2:uid="{52639044-B309-4334-ABC9-3CF03D31416C}"/>
   </bookViews>
   <sheets>
     <sheet name="COAMapping" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,15 +1238,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1583,14 +1583,14 @@
       <selection activeCell="C234" sqref="C234:C242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>99</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -2465,23 +2465,23 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1">
-      <c r="A110" s="34" t="s">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1">
-      <c r="A111" s="34" t="s">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -2497,18 +2497,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="33" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="35" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>139</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -2556,37 +2556,37 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
-      <c r="A121" s="34" t="s">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="33" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="33" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -2602,15 +2602,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
-      <c r="A126" s="34" t="s">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>153</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>157</v>
       </c>
@@ -2650,62 +2650,62 @@
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="33" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="33" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="33" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="33" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="33" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>165</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>166</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -2737,62 +2737,62 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="33" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B141" s="33" t="s">
+      <c r="B141" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="33" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="35" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="33" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="33" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="36" t="s">
+      <c r="C144" s="35" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="33" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="36" t="s">
+      <c r="C145" s="35" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -2808,40 +2808,40 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="33" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="35" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="33" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="35" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="33" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C150" s="36" t="s">
+      <c r="C150" s="35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>178</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>179</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>182</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>183</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>185</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>186</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>190</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>191</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>192</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>193</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>195</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>196</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>197</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>201</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>202</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>44</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>203</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>208</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>210</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>211</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -3113,18 +3113,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="33" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="C185" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>215</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>219</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>314</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>227</v>
       </c>
@@ -3228,73 +3228,73 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="33" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B199" s="33" t="s">
+      <c r="B199" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C199" s="36" t="s">
+      <c r="C199" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="33" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C200" s="37" t="s">
+      <c r="C200" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="33" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B201" s="33" t="s">
+      <c r="B201" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="37" t="s">
+      <c r="C201" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="33" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B202" s="33" t="s">
+      <c r="B202" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C202" s="37" t="s">
+      <c r="C202" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="33" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B203" s="33" t="s">
+      <c r="B203" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C203" s="37" t="s">
+      <c r="C203" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="33" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B204" s="33" t="s">
+      <c r="B204" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C204" s="37" t="s">
+      <c r="C204" s="36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>235</v>
       </c>
@@ -3302,18 +3302,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="33" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B206" s="33" t="s">
+      <c r="B206" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>237</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>238</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>317</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -3361,29 +3361,29 @@
         <v>154</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="33" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="B213" s="35" t="s">
+      <c r="B213" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C213" s="36" t="s">
+      <c r="C213" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="33" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B214" s="35" t="s">
+      <c r="B214" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C214" s="36" t="s">
+      <c r="C214" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>244</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>247</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>250</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>251</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>254</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>255</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>256</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>258</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>260</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>261</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>262</v>
       </c>
@@ -3511,23 +3511,23 @@
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1">
-      <c r="A231" s="34" t="s">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B231" s="34" t="s">
+      <c r="B231" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1">
-      <c r="A232" s="34" t="s">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B232" s="34" t="s">
+      <c r="B232" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>265</v>
       </c>
@@ -3535,122 +3535,122 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="33" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="B234" s="33" t="s">
+      <c r="B234" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="C234" s="37" t="s">
+      <c r="C234" s="36" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="33" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="B235" s="33" t="s">
+      <c r="B235" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C235" s="37" t="s">
+      <c r="C235" s="36" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="33" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="B236" s="33" t="s">
+      <c r="B236" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C236" s="37" t="s">
+      <c r="C236" s="36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="33" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="33" t="s">
+      <c r="B237" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C237" s="37" t="s">
+      <c r="C237" s="36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="33" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C238" s="37" t="s">
+      <c r="C238" s="36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="33" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B239" s="33" t="s">
+      <c r="B239" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C239" s="37" t="s">
+      <c r="C239" s="36" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="33" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B240" s="33" t="s">
+      <c r="B240" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C240" s="37" t="s">
+      <c r="C240" s="36" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="33" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="B241" s="33" t="s">
+      <c r="B241" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C241" s="37" t="s">
+      <c r="C241" s="36" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="33" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="B242" s="33" t="s">
+      <c r="B242" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C242" s="36" t="s">
+      <c r="C242" s="35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1">
-      <c r="A243" s="34" t="s">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B243" s="34" t="s">
+      <c r="B243" s="33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1">
-      <c r="A244" s="34" t="s">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="33" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>278</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>279</v>
       </c>
@@ -3681,1980 +3681,1980 @@
   <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A142" sqref="A142:A241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="95.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="34" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="34" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="34" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="34" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="34" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="34" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="34" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="34" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="34" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="34" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="34" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="34" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="34" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="34" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="34" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="34" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="34" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="34" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="34" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="34" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="34" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="34" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="34" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="34" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="34" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="34" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="34" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="34" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="34" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="34" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="34" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="34" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="34" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="34" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="34" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="34" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="34" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="34" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="34" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="34" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="34" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="34" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="34" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="34" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="34" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="34" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="34" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="34" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="34" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="34" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="34" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="34" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="34" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="34" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="34" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="34" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="34" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="34" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="34" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="34" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="34" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="34" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="34" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="34" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="34" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="34" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="34" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="34" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="34" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="34" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="34" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="34" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="34" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="34" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="34" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="34" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="34" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="34" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="34" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="34" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="34" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="34" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="34" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="34" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="34" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="34" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="34" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="34" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="34" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="33" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="34" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="34" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="34" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="34" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="34" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="34" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="34" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="34" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="34" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="34" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="34" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="34" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="34" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="34" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="33" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="34" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="34" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="34" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="34" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="34" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="34" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="34" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="34" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="34" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="34" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="34" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="34" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="34" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="34" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="34" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="34" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="34" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="34" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B163" s="34" t="s">
+      <c r="B163" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="34" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B164" s="34" t="s">
+      <c r="B164" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="34" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="34" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B166" s="34" t="s">
+      <c r="B166" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="34" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B167" s="34" t="s">
+      <c r="B167" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="34" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B168" s="34" t="s">
+      <c r="B168" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="34" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B169" s="34" t="s">
+      <c r="B169" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="34" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="34" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="34" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B172" s="34" t="s">
+      <c r="B172" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="34" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="34" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B174" s="34" t="s">
+      <c r="B174" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="34" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B175" s="34" t="s">
+      <c r="B175" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="34" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B176" s="34" t="s">
+      <c r="B176" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="34" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="34" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="34" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B179" s="34" t="s">
+      <c r="B179" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="34" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B180" s="34" t="s">
+      <c r="B180" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="34" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B181" s="34" t="s">
+      <c r="B181" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="34" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="34" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="34" t="s">
+      <c r="B183" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="34" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="34" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="34" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B186" s="34" t="s">
+      <c r="B186" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="34" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="34" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B188" s="34" t="s">
+      <c r="B188" s="33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="34" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B189" s="34" t="s">
+      <c r="B189" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="34" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B190" s="34" t="s">
+      <c r="B190" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="34" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="34" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B192" s="34" t="s">
+      <c r="B192" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="34" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B193" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="34" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B194" s="34" t="s">
+      <c r="B194" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="34" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="B195" s="34" t="s">
+      <c r="B195" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="34" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="B196" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="34" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B197" s="34" t="s">
+      <c r="B197" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="34" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B198" s="34" t="s">
+      <c r="B198" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="34" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="33" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="34" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B200" s="34" t="s">
+      <c r="B200" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="34" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B201" s="34" t="s">
+      <c r="B201" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="34" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B202" s="34" t="s">
+      <c r="B202" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="34" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B203" s="34" t="s">
+      <c r="B203" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="34" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B204" s="34" t="s">
+      <c r="B204" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="34" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B205" s="34" t="s">
+      <c r="B205" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="34" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="34" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="B207" s="34" t="s">
+      <c r="B207" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="34" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B208" s="34" t="s">
+      <c r="B208" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="34" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="B209" s="34" t="s">
+      <c r="B209" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="34" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B210" s="34" t="s">
+      <c r="B210" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="34" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B211" s="34" t="s">
+      <c r="B211" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="34" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B212" s="34" t="s">
+      <c r="B212" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="34" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="34" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="34" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="34" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B216" s="34" t="s">
+      <c r="B216" s="33" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="34" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="34" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="34" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B219" s="34" t="s">
+      <c r="B219" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="34" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B220" s="34" t="s">
+      <c r="B220" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="34" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="B221" s="34" t="s">
+      <c r="B221" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="34" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="34" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="34" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B224" s="34" t="s">
+      <c r="B224" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="34" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B225" s="34" t="s">
+      <c r="B225" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="34" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B226" s="34" t="s">
+      <c r="B226" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="34" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="B227" s="34" t="s">
+      <c r="B227" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="34" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B228" s="34" t="s">
+      <c r="B228" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="34" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B229" s="34" t="s">
+      <c r="B229" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="34" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B230" s="34" t="s">
+      <c r="B230" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="34" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B231" s="34" t="s">
+      <c r="B231" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="34" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B232" s="34" t="s">
+      <c r="B232" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="34" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B233" s="34" t="s">
+      <c r="B233" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="34" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B234" s="34" t="s">
+      <c r="B234" s="33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="34" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B235" s="34" t="s">
+      <c r="B235" s="33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="34" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B236" s="34" t="s">
+      <c r="B236" s="33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="34" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="34" t="s">
+      <c r="B237" s="33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="34" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B238" s="34" t="s">
+      <c r="B238" s="33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="34" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B239" s="34" t="s">
+      <c r="B239" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="34" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B240" s="34" t="s">
+      <c r="B240" s="33" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="34" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B241" s="34" t="s">
+      <c r="B241" s="33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="34" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B242" s="34" t="s">
+      <c r="B242" s="33" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="34" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B243" s="34" t="s">
+      <c r="B243" s="33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="34" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="33" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="34" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B245" s="34" t="s">
+      <c r="B245" s="33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="34" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B246" s="34" t="s">
+      <c r="B246" s="33" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -5690,59 +5690,59 @@
     <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>309</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -5791,7 +5791,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>308</v>
       </c>
@@ -5832,12 +5832,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>126</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>102</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>682327.96</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>123</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>101462.34000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="5.25" customHeight="1">
+    <row r="13" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6037,7 +6037,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>294</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>19650.793309352517</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="13" customFormat="1">
+    <row r="15" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>293</v>
       </c>
@@ -6140,12 +6140,12 @@
         <v>14741.959064748202</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>291</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>1171045.22</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>318</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>131</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>762832.43</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>290</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>30570.100000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>230</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>20698.57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="5.25" customHeight="1">
+    <row r="22" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6319,7 +6319,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>289</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:16" s="13" customFormat="1">
+    <row r="24" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -6394,7 +6394,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>288</v>
       </c>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" s="13" customFormat="1">
+    <row r="26" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -6469,12 +6469,12 @@
       <c r="N26" s="15"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>164</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>276602.25</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>152</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>17959.550000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>286</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>90367.87</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>246</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>330379.43</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>248</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>74542.720000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>259</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>4678.79</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>148</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>6958.77</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>315</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="M36" s="11"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>312</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>230</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="M38" s="11"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>144</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>222767.65999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="5.25" customHeight="1">
+    <row r="40" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6824,7 +6824,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>285</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>1024257.0399999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="5.25" customHeight="1">
+    <row r="42" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6897,7 +6897,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="16.899999999999999" customHeight="1">
+    <row r="43" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -6913,7 +6913,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="16.899999999999999" customHeight="1">
+    <row r="44" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>275</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="16.899999999999999" customHeight="1">
+    <row r="45" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>277</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="16.899999999999999" customHeight="1">
+    <row r="46" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>282</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="16.899999999999999" customHeight="1">
+    <row r="47" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>284</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>283</v>
       </c>
@@ -7042,11 +7042,11 @@
         <v>-83661.259999999893</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="5.25" customHeight="1" thickTop="1">
+    <row r="49" spans="1:13" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>282</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>281</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>275</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>11027.3</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -7124,7 +7124,7 @@
       <c r="H54" s="2"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -7145,7 +7145,7 @@
         <v>283653.37</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G57" s="1">
         <f>+G23+G41</f>
         <v>452288.46</v>
